--- a/Travellers.xlsx
+++ b/Travellers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prakhar216741\Documents\UiPath\practice\Get city weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8503F4-2BCE-4859-AB52-AC0A91778959}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D12788-9718-4AFA-BAF0-174DBB9CB4B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -541,7 +541,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -597,7 +597,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
